--- a/data/regions.xlsx
+++ b/data/regions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
   <si>
     <t>Abaúj</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Felső-Fehér vármegye</t>
+  </si>
+  <si>
+    <t>szász vidék</t>
   </si>
 </sst>
 </file>
@@ -711,11 +714,14 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -868,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
